--- a/VerveStacks_FIN/SuppXLS/scen_tsparameters_s2_w_p2_d.xlsx
+++ b/VerveStacks_FIN/SuppXLS/scen_tsparameters_s2_w_p2_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4471297-E374-4B27-8525-746BC7C0FDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58578FF-E8B1-4A0B-94FC-9E6EF00042D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2745,10 +2745,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0130h07,S2aH3,S2c0626h11,S2c0628h08,S2c0628h11,S2c0701h07,S2d0809h18,S2d0810h07,S2d0810h13,S2d0811h13,S2d0812h16,S4e1225h10,S2c0627h17,S2c0630h09,S2c0701h12,S2d0806h12,S2d0806h16,S2d0806h17,S2d0809h17,S2d0810h09,S2d0811h08,S2d0812h15,S4aH5,S4e1225h08,S4e1225h17,S1b0130h10,S2c0625h09,S2c0625h10,S2c0625h16,S2c0626h15,S2c0627h11,S2c0629h15,S2c0630h08,S2c0630h14,S2c0630h18,S2d0806h11,S2d0808h13,S2d0809h13,S2d0809h14,S3aH5,S4e1225h07,S1b0130h12,S1b0130h13,S2c0626h14,S2c0627h10,S2c0628h12,S2c0628h16,S2c0629h12,S2c0701h13,S2d0806h09,S2d0806h14,S2d0808h10,S2d0808h15,S2d0808h17,S2d0809h12,S2d0811h14,S2d0811h16,S2d0812h14,S2c0625h07,S2c0625h14,S2c0626h17,S2c0627h09,S2c0629h14,S2c0629h16,S2c0630h10,S2c0701h17,S2d0807h11,S2d0807h14,S2d0808h12,S2d0809h10,S2d0811h10,S2d0812h08,S2d0812h18,S1b0130h17,S2c0625h13,S2c0629h08,S2c0629h17,S2c0630h13,S2c0701h15,S2d0808h16,S2d0809h15,S2d0810h15,S2d0811h09,S1b0130h14,S1b0130h16,S2c0625h18,S2c0626h09,S2c0626h12,S2c0627h07,S2c0627h12,S2c0701h09,S2c0701h11,S2d0807h12,S2d0808h08,S2d0809h09,S2d0809h11,S2d0810h16,S3aH3,S4e1225h12,S1aH3,S2c0628h10,S2c0628h13,S2c0630h15,S2c0701h18,S2d0807h09,S2d0807h16,S2d0810h10,S2d0810h18,S2d0812h17,S1b0130h11,S2c0626h07,S2c0626h16,S2c0627h15,S2c0627h18,S2c0628h07,S2c0628h18,S2c0629h09,S2c0629h10,S2d0806h15,S2d0807h07,S2d0808h14,S2d0809h07,S2d0811h07,S2d0811h15,S3aH4,S4aH3,S4aH4,S4e1225h13,S1aH4,S2c0625h11,S2c0625h15,S2c0630h11,S2d0810h08,S4e1225h14,S1b0130h18,S2c0626h10,S2c0627h16,S2c0628h15,S2c0629h11,S2c0629h13,S2c0630h12,S2c0630h16,S2d0808h11,S2d0809h16,S2d0811h12,S2d0812h07,S2d0812h13,S4e1225h11,S4e1225h18,S2c0628h14,S2d0807h08,S2d0807h13,S2d0807h15,S2d0808h07,S4e1225h09,S4e1225h16,S2c0625h12,S2c0626h13,S2c0627h13,S2c0630h07,S2c0701h08,S2c0701h16,S2d0807h10,S2d0808h09,S2d0809h08,S2d0812h10,S2d0812h11,S1b0130h09,S2c0625h08,S2c0626h18,S2c0629h18,S2d0806h10,S2d0807h18,S2d0808h18,S2d0810h14,S2d0810h17,S2d0812h09,S2d0812h12,S1b0130h08,S2c0627h08,S2c0627h14,S2c0628h17,S2c0630h17,S2c0701h10,S2d0806h07,S2d0806h08,S2d0811h11,S1aH5,S1b0130h15,S2aH4,S2aH5,S2c0625h17,S2c0626h08,S2c0628h09,S2c0629h07,S2c0701h14,S2d0806h13,S2d0806h18,S2d0807h17,S2d0810h11,S2d0810h12,S2d0811h17,S2d0811h18,S4e1225h15</t>
-  </si>
-  <si>
-    <t>S1b0130h20,S2c0625h24,S2c0627h06,S2c0627h23,S2c0628h23,S2c0629h20,S2c0630h05,S2c0701h01,S2c0701h19,S2d0806h06,S2d0808h19,S2d0810h06,S2d0811h23,S1b0130h21,S2c0626h23,S2c0627h01,S2c0627h21,S2c0628h02,S2c0629h21,S2c0701h05,S2c0701h22,S2d0806h23,S2d0810h05,S2d0810h24,S2d0811h22,S3aH2,S4e1225h19,S1aH8,S1b0130h03,S1b0130h24,S2c0626h05,S2c0630h24,S2d0806h02,S2d0807h04,S2d0807h20,S2d0808h01,S2d0810h23,S2d0812h01,S2d0812h04,S2d0812h22,S1aH1,S2aH7,S2c0625h19,S2c0701h04,S2d0806h05,S2d0808h04,S2d0810h03,S2d0811h19,S2d0812h20,S2aH8,S2c0625h20,S2c0626h22,S2c0627h02,S2c0627h24,S2c0628h03,S2c0630h19,S2c0701h21,S2d0806h22,S2d0807h01,S2d0809h03,S4aH2,S4e1225h05,S1b0130h01,S1b0130h05,S2c0626h24,S2c0628h21,S2c0630h04,S2d0810h21,S2aH2,S2c0626h20,S2c0627h20,S2c0629h04,S2c0630h01,S2d0806h20,S2d0807h22,S2d0808h03,S2d0809h04,S2d0810h04,S2d0812h05,S2d0812h21,S2d0812h24,S4aH6,S4e1225h22,S1aH2,S1aH7,S2c0628h19,S2c0629h05,S2c0629h22,S2c0630h03,S2c0701h02,S2d0808h02,S2d0809h21,S2d0811h20,S2d0811h21,S3aH6,S4aH7,S4e1225h01,S2c0625h04,S2c0625h22,S2c0626h03,S2c0626h19,S2c0628h06,S2c0628h20,S2d0806h01,S2d0806h24,S2d0809h19,S2d0810h01,S2d0810h02,S2d0811h24,S2d0812h02,S2d0812h03,S2d0812h19,S4e1225h23,S4e1225h24,S2c0630h02,S2c0630h21,S2c0630h22,S2c0701h23,S2d0807h03,S2d0807h06,S2d0807h24,S2d0808h05,S2d0809h24,S2d0810h19,S4aH1,S4e1225h02,S2c0625h02,S2c0626h06,S2c0629h03,S2c0630h06,S2d0807h02,S4e1225h04,S4e1225h20,S1b0130h22,S2aH1,S2c0625h06,S2c0626h21,S2c0629h19,S2c0701h06,S2d0807h05,S2d0809h01,S2d0810h20,S2d0810h22,S2d0811h02,S3aH7,S4e1225h03,S2c0625h03,S2c0625h23,S2c0629h02,S2c0630h20,S2d0807h23,S2d0808h20,S2d0809h05,S2d0809h06,S2d0812h23,S4aH8,S4e1225h21,S1b0130h02,S1b0130h06,S2aH6,S2c0625h01,S2c0625h05,S2c0625h21,S2c0627h05,S2c0628h05,S2c0629h01,S2c0629h06,S2c0630h23,S2c0701h20,S2d0806h03,S2d0806h04,S2d0806h19,S2d0806h21,S2d0807h21,S2d0808h21,S2d0809h02,S2d0809h20,S2d0809h23,S2d0811h03,S2d0811h05,S2d0811h06,S3aH1,S1b0130h23,S2c0626h01,S2c0626h02,S2c0627h04,S2c0627h19,S2c0628h22,S2c0629h24,S2d0808h06,S2d0809h22,S3aH8,S1aH6,S1b0130h04,S1b0130h19,S2c0626h04,S2c0627h03,S2c0627h22,S2c0628h01,S2c0628h04,S2c0628h24,S2c0629h23,S2c0701h03,S2c0701h24,S2d0807h19,S2d0808h22,S2d0808h23,S2d0808h24,S2d0811h01,S2d0811h04,S2d0812h06,S4e1225h06</t>
+    <t>S2c0627h17,S2c0630h09,S2c0701h12,S2d0806h12,S2d0806h16,S2d0806h17,S2d0809h17,S2d0810h09,S2d0811h08,S2d0812h15,S4aH5,S4e1225h08,S4e1225h17,S1b0130h09,S2c0625h08,S2c0626h18,S2c0629h18,S2d0806h10,S2d0807h18,S2d0808h18,S2d0810h14,S2d0810h17,S2d0812h09,S2d0812h12,S1b0130h11,S2c0626h07,S2c0626h16,S2c0627h15,S2c0627h18,S2c0628h07,S2c0628h18,S2c0629h09,S2c0629h10,S2d0806h15,S2d0807h07,S2d0808h14,S2d0809h07,S2d0811h07,S2d0811h15,S3aH4,S4aH3,S4aH4,S4e1225h13,S1b0130h12,S1b0130h13,S2c0626h14,S2c0627h10,S2c0628h12,S2c0628h16,S2c0629h12,S2c0701h13,S2d0806h09,S2d0806h14,S2d0808h10,S2d0808h15,S2d0808h17,S2d0809h12,S2d0811h14,S2d0811h16,S2d0812h14,S1aH3,S2c0628h10,S2c0628h13,S2c0630h15,S2c0701h18,S2d0807h09,S2d0807h16,S2d0810h10,S2d0810h18,S2d0812h17,S1b0130h14,S1b0130h16,S2c0625h18,S2c0626h09,S2c0626h12,S2c0627h07,S2c0627h12,S2c0701h09,S2c0701h11,S2d0807h12,S2d0808h08,S2d0809h09,S2d0809h11,S2d0810h16,S3aH3,S4e1225h12,S1b0130h10,S2c0625h09,S2c0625h10,S2c0625h16,S2c0626h15,S2c0627h11,S2c0629h15,S2c0630h08,S2c0630h14,S2c0630h18,S2d0806h11,S2d0808h13,S2d0809h13,S2d0809h14,S3aH5,S4e1225h07,S1b0130h08,S2c0627h08,S2c0627h14,S2c0628h17,S2c0630h17,S2c0701h10,S2d0806h07,S2d0806h08,S2d0811h11,S1b0130h17,S2c0625h13,S2c0629h08,S2c0629h17,S2c0630h13,S2c0701h15,S2d0808h16,S2d0809h15,S2d0810h15,S2d0811h09,S1b0130h07,S2aH3,S2c0626h11,S2c0628h08,S2c0628h11,S2c0701h07,S2d0809h18,S2d0810h07,S2d0810h13,S2d0811h13,S2d0812h16,S4e1225h10,S1b0130h18,S2c0626h10,S2c0627h16,S2c0628h15,S2c0629h11,S2c0629h13,S2c0630h12,S2c0630h16,S2d0808h11,S2d0809h16,S2d0811h12,S2d0812h07,S2d0812h13,S4e1225h11,S4e1225h18,S2c0625h07,S2c0625h14,S2c0626h17,S2c0627h09,S2c0629h14,S2c0629h16,S2c0630h10,S2c0701h17,S2d0807h11,S2d0807h14,S2d0808h12,S2d0809h10,S2d0811h10,S2d0812h08,S2d0812h18,S2c0628h14,S2d0807h08,S2d0807h13,S2d0807h15,S2d0808h07,S4e1225h09,S4e1225h16,S1aH5,S1b0130h15,S2aH4,S2aH5,S2c0625h17,S2c0626h08,S2c0628h09,S2c0629h07,S2c0701h14,S2d0806h13,S2d0806h18,S2d0807h17,S2d0810h11,S2d0810h12,S2d0811h17,S2d0811h18,S4e1225h15,S1aH4,S2c0625h11,S2c0625h15,S2c0630h11,S2d0810h08,S4e1225h14,S2c0625h12,S2c0626h13,S2c0627h13,S2c0630h07,S2c0701h08,S2c0701h16,S2d0807h10,S2d0808h09,S2d0809h08,S2d0812h10,S2d0812h11</t>
+  </si>
+  <si>
+    <t>S1b0130h21,S2c0626h23,S2c0627h01,S2c0627h21,S2c0628h02,S2c0629h21,S2c0701h05,S2c0701h22,S2d0806h23,S2d0810h05,S2d0810h24,S2d0811h22,S3aH2,S4e1225h19,S1b0130h02,S1b0130h06,S2aH6,S2c0625h01,S2c0625h05,S2c0625h21,S2c0627h05,S2c0628h05,S2c0629h01,S2c0629h06,S2c0630h23,S2c0701h20,S2d0806h03,S2d0806h04,S2d0806h19,S2d0806h21,S2d0807h21,S2d0808h21,S2d0809h02,S2d0809h20,S2d0809h23,S2d0811h03,S2d0811h05,S2d0811h06,S3aH1,S2c0625h04,S2c0625h22,S2c0626h03,S2c0626h19,S2c0628h06,S2c0628h20,S2d0806h01,S2d0806h24,S2d0809h19,S2d0810h01,S2d0810h02,S2d0811h24,S2d0812h02,S2d0812h03,S2d0812h19,S4e1225h23,S4e1225h24,S1aH1,S2aH7,S2c0625h19,S2c0701h04,S2d0806h05,S2d0808h04,S2d0810h03,S2d0811h19,S2d0812h20,S1aH2,S1aH7,S2c0628h19,S2c0629h05,S2c0629h22,S2c0630h03,S2c0701h02,S2d0808h02,S2d0809h21,S2d0811h20,S2d0811h21,S3aH6,S4aH7,S4e1225h01,S2aH2,S2c0626h20,S2c0627h20,S2c0629h04,S2c0630h01,S2d0806h20,S2d0807h22,S2d0808h03,S2d0809h04,S2d0810h04,S2d0812h05,S2d0812h21,S2d0812h24,S4aH6,S4e1225h22,S1aH8,S1b0130h03,S1b0130h24,S2c0626h05,S2c0630h24,S2d0806h02,S2d0807h04,S2d0807h20,S2d0808h01,S2d0810h23,S2d0812h01,S2d0812h04,S2d0812h22,S1b0130h23,S2c0626h01,S2c0626h02,S2c0627h04,S2c0627h19,S2c0628h22,S2c0629h24,S2d0808h06,S2d0809h22,S3aH8,S1b0130h01,S1b0130h05,S2c0626h24,S2c0628h21,S2c0630h04,S2d0810h21,S1b0130h20,S2c0625h24,S2c0627h06,S2c0627h23,S2c0628h23,S2c0629h20,S2c0630h05,S2c0701h01,S2c0701h19,S2d0806h06,S2d0808h19,S2d0810h06,S2d0811h23,S2c0625h02,S2c0626h06,S2c0629h03,S2c0630h06,S2d0807h02,S4e1225h04,S4e1225h20,S2aH8,S2c0625h20,S2c0626h22,S2c0627h02,S2c0627h24,S2c0628h03,S2c0630h19,S2c0701h21,S2d0806h22,S2d0807h01,S2d0809h03,S4aH2,S4e1225h05,S1b0130h22,S2aH1,S2c0625h06,S2c0626h21,S2c0629h19,S2c0701h06,S2d0807h05,S2d0809h01,S2d0810h20,S2d0810h22,S2d0811h02,S3aH7,S4e1225h03,S1aH6,S1b0130h04,S1b0130h19,S2c0626h04,S2c0627h03,S2c0627h22,S2c0628h01,S2c0628h04,S2c0628h24,S2c0629h23,S2c0701h03,S2c0701h24,S2d0807h19,S2d0808h22,S2d0808h23,S2d0808h24,S2d0811h01,S2d0811h04,S2d0812h06,S4e1225h06,S2c0630h02,S2c0630h21,S2c0630h22,S2c0701h23,S2d0807h03,S2d0807h06,S2d0807h24,S2d0808h05,S2d0809h24,S2d0810h19,S4aH1,S4e1225h02,S2c0625h03,S2c0625h23,S2c0629h02,S2c0630h20,S2d0807h23,S2d0808h20,S2d0809h05,S2d0809h06,S2d0812h23,S4aH8,S4e1225h21</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3320,7 +3320,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0130h20,S2c0625h24,S2c0627h06,S2c0627h23,S2c0628h23,S2c0629h20,S2c0630h05,S2c0701h01,S2c0701h19,S2d0806h06,S2d0808h19,S2d0810h06,S2d0811h23,S1b0130h21,S2c0626h23,S2c0627h01,S2c0627h21,S2c0628h02,S2c0629h21,S2c0701h05,S2c0701h22,S2d0806h23,S2d0810h05,S2d0810h24,S2d0811h22,S3aH2,S4e1225h19,S1aH8,S1b0130h03,S1b0130h24,S2c0626h05,S2c0630h24,S2d0806h02,S2d0807h04,S2d0807h20,S2d0808h01,S2d0810h23,S2d0812h01,S2d0812h04,S2d0812h22,S1aH1,S2aH7,S2c0625h19,S2c0701h04,S2d0806h05,S2d0808h04,S2d0810h03,S2d0811h19,S2d0812h20,S2aH8,S2c0625h20,S2c0626h22,S2c0627h02,S2c0627h24,S2c0628h03,S2c0630h19,S2c0701h21,S2d0806h22,S2d0807h01,S2d0809h03,S4aH2,S4e1225h05,S1b0130h01,S1b0130h05,S2c0626h24,S2c0628h21,S2c0630h04,S2d0810h21,S2aH2,S2c0626h20,S2c0627h20,S2c0629h04,S2c0630h01,S2d0806h20,S2d0807h22,S2d0808h03,S2d0809h04,S2d0810h04,S2d0812h05,S2d0812h21,S2d0812h24,S4aH6,S4e1225h22,S1aH2,S1aH7,S2c0628h19,S2c0629h05,S2c0629h22,S2c0630h03,S2c0701h02,S2d0808h02,S2d0809h21,S2d0811h20,S2d0811h21,S3aH6,S4aH7,S4e1225h01,S2c0625h04,S2c0625h22,S2c0626h03,S2c0626h19,S2c0628h06,S2c0628h20,S2d0806h01,S2d0806h24,S2d0809h19,S2d0810h01,S2d0810h02,S2d0811h24,S2d0812h02,S2d0812h03,S2d0812h19,S4e1225h23,S4e1225h24,S2c0630h02,S2c0630h21,S2c0630h22,S2c0701h23,S2d0807h03,S2d0807h06,S2d0807h24,S2d0808h05,S2d0809h24,S2d0810h19,S4aH1,S4e1225h02,S2c0625h02,S2c0626h06,S2c0629h03,S2c0630h06,S2d0807h02,S4e1225h04,S4e1225h20,S1b0130h22,S2aH1,S2c0625h06,S2c0626h21,S2c0629h19,S2c0701h06,S2d0807h05,S2d0809h01,S2d0810h20,S2d0810h22,S2d0811h02,S3aH7,S4e1225h03,S2c0625h03,S2c0625h23,S2c0629h02,S2c0630h20,S2d0807h23,S2d0808h20,S2d0809h05,S2d0809h06,S2d0812h23,S4aH8,S4e1225h21,S1b0130h02,S1b0130h06,S2aH6,S2c0625h01,S2c0625h05,S2c0625h21,S2c0627h05,S2c0628h05,S2c0629h01,S2c0629h06,S2c0630h23,S2c0701h20,S2d0806h03,S2d0806h04,S2d0806h19,S2d0806h21,S2d0807h21,S2d0808h21,S2d0809h02,S2d0809h20,S2d0809h23,S2d0811h03,S2d0811h05,S2d0811h06,S3aH1,S1b0130h23,S2c0626h01,S2c0626h02,S2c0627h04,S2c0627h19,S2c0628h22,S2c0629h24,S2d0808h06,S2d0809h22,S3aH8,S1aH6,S1b0130h04,S1b0130h19,S2c0626h04,S2c0627h03,S2c0627h22,S2c0628h01,S2c0628h04,S2c0628h24,S2c0629h23,S2c0701h03,S2c0701h24,S2d0807h19,S2d0808h22,S2d0808h23,S2d0808h24,S2d0811h01,S2d0811h04,S2d0812h06,S4e1225h06</v>
+        <v>S1b0130h21,S2c0626h23,S2c0627h01,S2c0627h21,S2c0628h02,S2c0629h21,S2c0701h05,S2c0701h22,S2d0806h23,S2d0810h05,S2d0810h24,S2d0811h22,S3aH2,S4e1225h19,S1b0130h02,S1b0130h06,S2aH6,S2c0625h01,S2c0625h05,S2c0625h21,S2c0627h05,S2c0628h05,S2c0629h01,S2c0629h06,S2c0630h23,S2c0701h20,S2d0806h03,S2d0806h04,S2d0806h19,S2d0806h21,S2d0807h21,S2d0808h21,S2d0809h02,S2d0809h20,S2d0809h23,S2d0811h03,S2d0811h05,S2d0811h06,S3aH1,S2c0625h04,S2c0625h22,S2c0626h03,S2c0626h19,S2c0628h06,S2c0628h20,S2d0806h01,S2d0806h24,S2d0809h19,S2d0810h01,S2d0810h02,S2d0811h24,S2d0812h02,S2d0812h03,S2d0812h19,S4e1225h23,S4e1225h24,S1aH1,S2aH7,S2c0625h19,S2c0701h04,S2d0806h05,S2d0808h04,S2d0810h03,S2d0811h19,S2d0812h20,S1aH2,S1aH7,S2c0628h19,S2c0629h05,S2c0629h22,S2c0630h03,S2c0701h02,S2d0808h02,S2d0809h21,S2d0811h20,S2d0811h21,S3aH6,S4aH7,S4e1225h01,S2aH2,S2c0626h20,S2c0627h20,S2c0629h04,S2c0630h01,S2d0806h20,S2d0807h22,S2d0808h03,S2d0809h04,S2d0810h04,S2d0812h05,S2d0812h21,S2d0812h24,S4aH6,S4e1225h22,S1aH8,S1b0130h03,S1b0130h24,S2c0626h05,S2c0630h24,S2d0806h02,S2d0807h04,S2d0807h20,S2d0808h01,S2d0810h23,S2d0812h01,S2d0812h04,S2d0812h22,S1b0130h23,S2c0626h01,S2c0626h02,S2c0627h04,S2c0627h19,S2c0628h22,S2c0629h24,S2d0808h06,S2d0809h22,S3aH8,S1b0130h01,S1b0130h05,S2c0626h24,S2c0628h21,S2c0630h04,S2d0810h21,S1b0130h20,S2c0625h24,S2c0627h06,S2c0627h23,S2c0628h23,S2c0629h20,S2c0630h05,S2c0701h01,S2c0701h19,S2d0806h06,S2d0808h19,S2d0810h06,S2d0811h23,S2c0625h02,S2c0626h06,S2c0629h03,S2c0630h06,S2d0807h02,S4e1225h04,S4e1225h20,S2aH8,S2c0625h20,S2c0626h22,S2c0627h02,S2c0627h24,S2c0628h03,S2c0630h19,S2c0701h21,S2d0806h22,S2d0807h01,S2d0809h03,S4aH2,S4e1225h05,S1b0130h22,S2aH1,S2c0625h06,S2c0626h21,S2c0629h19,S2c0701h06,S2d0807h05,S2d0809h01,S2d0810h20,S2d0810h22,S2d0811h02,S3aH7,S4e1225h03,S1aH6,S1b0130h04,S1b0130h19,S2c0626h04,S2c0627h03,S2c0627h22,S2c0628h01,S2c0628h04,S2c0628h24,S2c0629h23,S2c0701h03,S2c0701h24,S2d0807h19,S2d0808h22,S2d0808h23,S2d0808h24,S2d0811h01,S2d0811h04,S2d0812h06,S4e1225h06,S2c0630h02,S2c0630h21,S2c0630h22,S2c0701h23,S2d0807h03,S2d0807h06,S2d0807h24,S2d0808h05,S2d0809h24,S2d0810h19,S4aH1,S4e1225h02,S2c0625h03,S2c0625h23,S2c0629h02,S2c0630h20,S2d0807h23,S2d0808h20,S2d0809h05,S2d0809h06,S2d0812h23,S4aH8,S4e1225h21</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3352,7 +3352,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0130h07,S2aH3,S2c0626h11,S2c0628h08,S2c0628h11,S2c0701h07,S2d0809h18,S2d0810h07,S2d0810h13,S2d0811h13,S2d0812h16,S4e1225h10,S2c0627h17,S2c0630h09,S2c0701h12,S2d0806h12,S2d0806h16,S2d0806h17,S2d0809h17,S2d0810h09,S2d0811h08,S2d0812h15,S4aH5,S4e1225h08,S4e1225h17,S1b0130h10,S2c0625h09,S2c0625h10,S2c0625h16,S2c0626h15,S2c0627h11,S2c0629h15,S2c0630h08,S2c0630h14,S2c0630h18,S2d0806h11,S2d0808h13,S2d0809h13,S2d0809h14,S3aH5,S4e1225h07,S1b0130h12,S1b0130h13,S2c0626h14,S2c0627h10,S2c0628h12,S2c0628h16,S2c0629h12,S2c0701h13,S2d0806h09,S2d0806h14,S2d0808h10,S2d0808h15,S2d0808h17,S2d0809h12,S2d0811h14,S2d0811h16,S2d0812h14,S2c0625h07,S2c0625h14,S2c0626h17,S2c0627h09,S2c0629h14,S2c0629h16,S2c0630h10,S2c0701h17,S2d0807h11,S2d0807h14,S2d0808h12,S2d0809h10,S2d0811h10,S2d0812h08,S2d0812h18,S1b0130h17,S2c0625h13,S2c0629h08,S2c0629h17,S2c0630h13,S2c0701h15,S2d0808h16,S2d0809h15,S2d0810h15,S2d0811h09,S1b0130h14,S1b0130h16,S2c0625h18,S2c0626h09,S2c0626h12,S2c0627h07,S2c0627h12,S2c0701h09,S2c0701h11,S2d0807h12,S2d0808h08,S2d0809h09,S2d0809h11,S2d0810h16,S3aH3,S4e1225h12,S1aH3,S2c0628h10,S2c0628h13,S2c0630h15,S2c0701h18,S2d0807h09,S2d0807h16,S2d0810h10,S2d0810h18,S2d0812h17,S1b0130h11,S2c0626h07,S2c0626h16,S2c0627h15,S2c0627h18,S2c0628h07,S2c0628h18,S2c0629h09,S2c0629h10,S2d0806h15,S2d0807h07,S2d0808h14,S2d0809h07,S2d0811h07,S2d0811h15,S3aH4,S4aH3,S4aH4,S4e1225h13,S1aH4,S2c0625h11,S2c0625h15,S2c0630h11,S2d0810h08,S4e1225h14,S1b0130h18,S2c0626h10,S2c0627h16,S2c0628h15,S2c0629h11,S2c0629h13,S2c0630h12,S2c0630h16,S2d0808h11,S2d0809h16,S2d0811h12,S2d0812h07,S2d0812h13,S4e1225h11,S4e1225h18,S2c0628h14,S2d0807h08,S2d0807h13,S2d0807h15,S2d0808h07,S4e1225h09,S4e1225h16,S2c0625h12,S2c0626h13,S2c0627h13,S2c0630h07,S2c0701h08,S2c0701h16,S2d0807h10,S2d0808h09,S2d0809h08,S2d0812h10,S2d0812h11,S1b0130h09,S2c0625h08,S2c0626h18,S2c0629h18,S2d0806h10,S2d0807h18,S2d0808h18,S2d0810h14,S2d0810h17,S2d0812h09,S2d0812h12,S1b0130h08,S2c0627h08,S2c0627h14,S2c0628h17,S2c0630h17,S2c0701h10,S2d0806h07,S2d0806h08,S2d0811h11,S1aH5,S1b0130h15,S2aH4,S2aH5,S2c0625h17,S2c0626h08,S2c0628h09,S2c0629h07,S2c0701h14,S2d0806h13,S2d0806h18,S2d0807h17,S2d0810h11,S2d0810h12,S2d0811h17,S2d0811h18,S4e1225h15</v>
+        <v>S2c0627h17,S2c0630h09,S2c0701h12,S2d0806h12,S2d0806h16,S2d0806h17,S2d0809h17,S2d0810h09,S2d0811h08,S2d0812h15,S4aH5,S4e1225h08,S4e1225h17,S1b0130h09,S2c0625h08,S2c0626h18,S2c0629h18,S2d0806h10,S2d0807h18,S2d0808h18,S2d0810h14,S2d0810h17,S2d0812h09,S2d0812h12,S1b0130h11,S2c0626h07,S2c0626h16,S2c0627h15,S2c0627h18,S2c0628h07,S2c0628h18,S2c0629h09,S2c0629h10,S2d0806h15,S2d0807h07,S2d0808h14,S2d0809h07,S2d0811h07,S2d0811h15,S3aH4,S4aH3,S4aH4,S4e1225h13,S1b0130h12,S1b0130h13,S2c0626h14,S2c0627h10,S2c0628h12,S2c0628h16,S2c0629h12,S2c0701h13,S2d0806h09,S2d0806h14,S2d0808h10,S2d0808h15,S2d0808h17,S2d0809h12,S2d0811h14,S2d0811h16,S2d0812h14,S1aH3,S2c0628h10,S2c0628h13,S2c0630h15,S2c0701h18,S2d0807h09,S2d0807h16,S2d0810h10,S2d0810h18,S2d0812h17,S1b0130h14,S1b0130h16,S2c0625h18,S2c0626h09,S2c0626h12,S2c0627h07,S2c0627h12,S2c0701h09,S2c0701h11,S2d0807h12,S2d0808h08,S2d0809h09,S2d0809h11,S2d0810h16,S3aH3,S4e1225h12,S1b0130h10,S2c0625h09,S2c0625h10,S2c0625h16,S2c0626h15,S2c0627h11,S2c0629h15,S2c0630h08,S2c0630h14,S2c0630h18,S2d0806h11,S2d0808h13,S2d0809h13,S2d0809h14,S3aH5,S4e1225h07,S1b0130h08,S2c0627h08,S2c0627h14,S2c0628h17,S2c0630h17,S2c0701h10,S2d0806h07,S2d0806h08,S2d0811h11,S1b0130h17,S2c0625h13,S2c0629h08,S2c0629h17,S2c0630h13,S2c0701h15,S2d0808h16,S2d0809h15,S2d0810h15,S2d0811h09,S1b0130h07,S2aH3,S2c0626h11,S2c0628h08,S2c0628h11,S2c0701h07,S2d0809h18,S2d0810h07,S2d0810h13,S2d0811h13,S2d0812h16,S4e1225h10,S1b0130h18,S2c0626h10,S2c0627h16,S2c0628h15,S2c0629h11,S2c0629h13,S2c0630h12,S2c0630h16,S2d0808h11,S2d0809h16,S2d0811h12,S2d0812h07,S2d0812h13,S4e1225h11,S4e1225h18,S2c0625h07,S2c0625h14,S2c0626h17,S2c0627h09,S2c0629h14,S2c0629h16,S2c0630h10,S2c0701h17,S2d0807h11,S2d0807h14,S2d0808h12,S2d0809h10,S2d0811h10,S2d0812h08,S2d0812h18,S2c0628h14,S2d0807h08,S2d0807h13,S2d0807h15,S2d0808h07,S4e1225h09,S4e1225h16,S1aH5,S1b0130h15,S2aH4,S2aH5,S2c0625h17,S2c0626h08,S2c0628h09,S2c0629h07,S2c0701h14,S2d0806h13,S2d0806h18,S2d0807h17,S2d0810h11,S2d0810h12,S2d0811h17,S2d0811h18,S4e1225h15,S1aH4,S2c0625h11,S2c0625h15,S2c0630h11,S2d0810h08,S4e1225h14,S2c0625h12,S2c0626h13,S2c0627h13,S2c0630h07,S2c0701h08,S2c0701h16,S2d0807h10,S2d0808h09,S2d0809h08,S2d0812h10,S2d0812h11</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3965,7 +3965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D2AC2D-6A8B-49DA-9B04-5F4CEC01EA40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABD89E6-03E8-467C-9A01-4120684CCD84}">
   <dimension ref="B2:F395"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7178,7 +7178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53613C2D-95A9-445C-822C-59372D6B83D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0C4A3B-8ADB-4BFE-92C1-BB38D9F2EE8F}">
   <dimension ref="B2:O419"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7257,10 +7257,10 @@
         <v>897</v>
       </c>
       <c r="M4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N4">
-        <v>9.9621445549784318E-2</v>
+        <v>0.49810722774892158</v>
       </c>
       <c r="O4" t="s">
         <v>908</v>
@@ -7292,10 +7292,10 @@
         <v>897</v>
       </c>
       <c r="M5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N5">
-        <v>0.18498107227748919</v>
+        <v>9.9621445549784304E-2</v>
       </c>
       <c r="O5" t="s">
         <v>908</v>
@@ -7327,10 +7327,10 @@
         <v>897</v>
       </c>
       <c r="M6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="N6">
-        <v>0.49810722774892152</v>
+        <v>0.18498107227748917</v>
       </c>
       <c r="O6" t="s">
         <v>908</v>
@@ -7365,7 +7365,7 @@
         <v>75</v>
       </c>
       <c r="N7">
-        <v>0.41729025442380496</v>
+        <v>0.41729025442380491</v>
       </c>
       <c r="O7" t="s">
         <v>908</v>
@@ -18089,7 +18089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0405F7-8E18-4187-B003-6A7A35FCFB14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50203A4F-499E-4F13-82DF-188DB3D58983}">
   <dimension ref="B2:O835"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
